--- a/biology/Zoologie/Anomalon/Anomalon.xlsx
+++ b/biology/Zoologie/Anomalon/Anomalon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomalon est un genre de guêpes parasitoïdes appartenant à la famille des Ichneumonidae, dans la super-famille des Ichneumonoidea et la sous-famille des Anomaloninae.
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est peut-être le seul genre de la tribu Anomalonini, bien que Neogreeneia Viereck, 1912 soit parfois considéré comme un genre valide de la tribu[1],[2].
-Ces guêpes sont présentes dans le monde entier, mais plus diversifiées dans les régions tropicales[3],[4]. Vingt espèces sont répertoriées au Costa Rica. En Afrique et au Moyen-Orient, ils sont bien représentés dans les habitats secs, mais dans les Amériques, ils sont plus fréquents dans les forêts pluviales très humides. Les hôtes répertoriés comprennent les larves de ténébrionides ou de coléoptères élatéridés et les larves de noctuelles et de teignes tortricides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est peut-être le seul genre de la tribu Anomalonini, bien que Neogreeneia Viereck, 1912 soit parfois considéré comme un genre valide de la tribu,.
+Ces guêpes sont présentes dans le monde entier, mais plus diversifiées dans les régions tropicales,. Vingt espèces sont répertoriées au Costa Rica. En Afrique et au Moyen-Orient, ils sont bien représentés dans les habitats secs, mais dans les Amériques, ils sont plus fréquents dans les forêts pluviales très humides. Les hôtes répertoriés comprennent les larves de ténébrionides ou de coléoptères élatéridés et les larves de noctuelles et de teignes tortricides.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>"L'espèce d'Anomalon peut être facilement reconnue des autres Anomaloninae par la combinaison des caractéristiques morphologiques suivantes :
 notaulus indistinct, représenté par une zone rugueuse ;
 aile antérieure avec r-m joignant 2/M distal à 2m-cu ;
 aile postérieure avec abscisse distale de 2/Cu entièrement absente ;
 épipleurum du troisième tergite métasomal séparé par un pli juste en dessous du spiracle ;
-mi-tibia avec un seul éperon apical."[5]</t>
+mi-tibia avec un seul éperon apical."</t>
         </is>
       </c>
     </row>
@@ -578,9 +594,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Biolib, les espèces de ce genre sont[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Biolib, les espèces de ce genre sont :
 A. acevedoi Gauld &amp; Bradshaw, 1997
 A. ambonense Kusigemati, 1984
 A. amseli (Hedwig, 1961)
@@ -698,9 +716,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database, les espèces fossiles sont[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database, les espèces fossiles sont :
 Anomalon afflictum Theobald 1937
 Anomalon confertum Brues 1910
 Anomalon deletum Brues 1910
